--- a/data/accounts_data.xlsx
+++ b/data/accounts_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realaskaer/PycharmProjects/AstrumMachine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31B7B47-62FC-6B4C-BEB6-F4521F275611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD7A21-910A-BC4F-BC84-A07DD865333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Discord Token</t>
   </si>
   <si>
-    <t>EVM Private Key</t>
-  </si>
-  <si>
     <t>Twitter ct0</t>
   </si>
   <si>
@@ -77,21 +74,6 @@
     <t>0x123</t>
   </si>
   <si>
-    <t>Aptos Private Key</t>
-  </si>
-  <si>
-    <t>Sui Private Key</t>
-  </si>
-  <si>
-    <t>Solana Private Key</t>
-  </si>
-  <si>
-    <t>Cosmos Mnemonic</t>
-  </si>
-  <si>
-    <t>Bitcoin Mnemonic</t>
-  </si>
-  <si>
     <t>Cosmos Deposit Address</t>
   </si>
   <si>
@@ -107,18 +89,6 @@
     <t>ABC123</t>
   </si>
   <si>
-    <t>cosmos cosmos cosmos</t>
-  </si>
-  <si>
-    <t>bitcoin bitcoin bitcon</t>
-  </si>
-  <si>
-    <t>aptos aptos aptos</t>
-  </si>
-  <si>
-    <t>sui sui sui</t>
-  </si>
-  <si>
     <t>log:pass</t>
   </si>
   <si>
@@ -131,14 +101,38 @@
     <t>btc123</t>
   </si>
   <si>
-    <t>log:pass@ip:port</t>
+    <t>EVM</t>
+  </si>
+  <si>
+    <t>Solana</t>
+  </si>
+  <si>
+    <t>Cosmos</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Aptos</t>
+  </si>
+  <si>
+    <t>Sui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> any format (любой формат)</t>
+  </si>
+  <si>
+    <t>MT123</t>
+  </si>
+  <si>
+    <t>OT123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +173,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +199,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -227,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -236,6 +245,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
@@ -522,32 +532,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1751AD-08BF-8141-A6B2-846BFCE83C68}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
     <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" customWidth="1"/>
     <col min="13" max="13" width="27.6640625" customWidth="1"/>
-    <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="22.1640625" customWidth="1"/>
-    <col min="16" max="17" width="24.1640625" customWidth="1"/>
-    <col min="18" max="18" width="26" customWidth="1"/>
-    <col min="19" max="19" width="25" customWidth="1"/>
-    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" customWidth="1"/>
+    <col min="19" max="19" width="26.83203125" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -555,61 +566,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -617,64 +628,284 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/accounts_data.xlsx
+++ b/data/accounts_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realaskaer/PycharmProjects/AstrumMachine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD7A21-910A-BC4F-BC84-A07DD865333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F544BD-D140-E84F-AF3D-D4C9A1BD2393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>OT123</t>
+  </si>
+  <si>
+    <t>log:pass@ip:port</t>
+  </si>
+  <si>
+    <t>Referral Code</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1751AD-08BF-8141-A6B2-846BFCE83C68}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -545,23 +551,23 @@
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="32.5" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.5" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" customWidth="1"/>
-    <col min="19" max="19" width="26.83203125" customWidth="1"/>
-    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="32.5" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.5" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" customWidth="1"/>
+    <col min="21" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,46 +590,49 @@
         <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -646,16 +655,16 @@
         <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
@@ -667,25 +676,28 @@
         <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -706,8 +718,9 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -728,8 +741,9 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -750,8 +764,9 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -772,8 +787,9 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -794,8 +810,9 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -816,8 +833,9 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -838,8 +856,9 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -860,8 +879,9 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -882,8 +902,9 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -904,8 +925,9 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/accounts_data.xlsx
+++ b/data/accounts_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realaskaer/PycharmProjects/AstrumMachine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F544BD-D140-E84F-AF3D-D4C9A1BD2393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD8CDFE-F0DD-3148-BE32-3D712F3BF477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Referral Code</t>
+  </si>
+  <si>
+    <t>Nickname</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1751AD-08BF-8141-A6B2-846BFCE83C68}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,87 +568,89 @@
     <col min="19" max="19" width="26.6640625" customWidth="1"/>
     <col min="20" max="20" width="26.83203125" customWidth="1"/>
     <col min="21" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -655,19 +660,19 @@
         <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>18</v>
@@ -679,25 +684,28 @@
         <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -719,8 +727,9 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -742,8 +751,9 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -765,8 +775,9 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -788,8 +799,9 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -811,8 +823,9 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -834,8 +847,9 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -857,8 +871,9 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -880,8 +895,9 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -903,8 +919,9 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -926,8 +943,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/accounts_data.xlsx
+++ b/data/accounts_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realaskaer/PycharmProjects/AstrumMachine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD8CDFE-F0DD-3148-BE32-3D712F3BF477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFED0B3-7D3E-EA40-8AE1-01241D7111DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Nickname</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>phone:api_id:api:hash:password</t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1751AD-08BF-8141-A6B2-846BFCE83C68}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,22 +562,22 @@
     <col min="6" max="6" width="23.83203125" customWidth="1"/>
     <col min="7" max="8" width="23.1640625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="32.5" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" customWidth="1"/>
-    <col min="12" max="12" width="24.5" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" customWidth="1"/>
-    <col min="19" max="19" width="26.6640625" customWidth="1"/>
-    <col min="20" max="20" width="26.83203125" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="32.5" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="27.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" customWidth="1"/>
+    <col min="20" max="20" width="26.6640625" customWidth="1"/>
+    <col min="21" max="21" width="26.83203125" customWidth="1"/>
+    <col min="22" max="22" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,44 +608,47 @@
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -668,14 +677,14 @@
       <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>18</v>
@@ -687,25 +696,28 @@
         <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -728,8 +740,9 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -752,8 +765,9 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -776,8 +790,9 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -800,8 +815,9 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -824,8 +840,9 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -848,8 +865,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -872,8 +890,9 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -896,8 +915,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -920,8 +940,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -944,8 +965,9 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/accounts_data.xlsx
+++ b/data/accounts_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realaskaer/PycharmProjects/AstrumMachine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFED0B3-7D3E-EA40-8AE1-01241D7111DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80084E25-564A-514D-B6FB-0ADE8C416937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -47,45 +47,21 @@
     <t>Main 1</t>
   </si>
   <si>
-    <t>Twitter Token</t>
-  </si>
-  <si>
-    <t>Discord Token</t>
-  </si>
-  <si>
-    <t>Twitter ct0</t>
-  </si>
-  <si>
-    <t>Reserve Twitter ct0</t>
-  </si>
-  <si>
-    <t>Reserve Discord Token</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Reserve Email</t>
   </si>
   <si>
-    <t>Reserve Twitter Token</t>
-  </si>
-  <si>
     <t>0x123</t>
   </si>
   <si>
-    <t>Cosmos Deposit Address</t>
-  </si>
-  <si>
     <t>EVM Deposit Address</t>
   </si>
   <si>
     <t>Solana Deposit Address</t>
   </si>
   <si>
-    <t>Bitcoin Deposit Address</t>
-  </si>
-  <si>
     <t>ABC123</t>
   </si>
   <si>
@@ -95,39 +71,15 @@
     <t>abc123</t>
   </si>
   <si>
-    <t>celestia123</t>
-  </si>
-  <si>
-    <t>btc123</t>
-  </si>
-  <si>
     <t>EVM</t>
   </si>
   <si>
     <t>Solana</t>
   </si>
   <si>
-    <t>Cosmos</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>Aptos</t>
-  </si>
-  <si>
-    <t>Sui</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> any format (любой формат)</t>
-  </si>
-  <si>
     <t>MT123</t>
   </si>
   <si>
-    <t>OT123</t>
-  </si>
-  <si>
     <t>log:pass@ip:port</t>
   </si>
   <si>
@@ -137,10 +89,25 @@
     <t>Nickname</t>
   </si>
   <si>
-    <t>Telegram</t>
-  </si>
-  <si>
-    <t>phone:api_id:api:hash:password</t>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Reserve Twitter</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Reserve Discord</t>
+  </si>
+  <si>
+    <t>RocketTable123</t>
+  </si>
+  <si>
+    <t>mnemonic/private key</t>
+  </si>
+  <si>
+    <t>login:password:2fa:token:ct0</t>
   </si>
 </sst>
 </file>
@@ -547,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1751AD-08BF-8141-A6B2-846BFCE83C68}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,12 +527,13 @@
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" customWidth="1"/>
-    <col min="7" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="11" width="32.5" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" customWidth="1"/>
     <col min="13" max="13" width="24.5" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
     <col min="15" max="15" width="27.6640625" customWidth="1"/>
     <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.1640625" customWidth="1"/>
@@ -577,147 +545,95 @@
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>33</v>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -732,17 +648,8 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -757,17 +664,8 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -782,17 +680,8 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -807,17 +696,8 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -832,17 +712,8 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -857,17 +728,8 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -882,17 +744,8 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -907,17 +760,8 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -932,17 +776,8 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -957,17 +792,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
